--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Atto di pre-riconoscimento</t>
   </si>
   <si>
@@ -98,6 +110,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -444,6 +459,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -529,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G157"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -541,6 +559,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -562,265 +581,307 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -842,2845 +903,3274 @@
       <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F130" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
   </si>
   <si>
     <t>Atto di pre-riconoscimento</t>
@@ -547,14 +541,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="27.54296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.8984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
@@ -651,18 +645,18 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -679,13 +673,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -702,13 +696,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -725,13 +719,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -748,10 +742,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -771,10 +765,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -794,10 +788,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -817,10 +811,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -840,108 +834,108 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>6</v>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>34</v>
@@ -950,21 +944,21 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>36</v>
@@ -973,44 +967,44 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>41</v>
@@ -1019,44 +1013,44 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>46</v>
@@ -1065,21 +1059,21 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>48</v>
@@ -1088,21 +1082,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>50</v>
@@ -1111,21 +1105,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>52</v>
@@ -1134,21 +1128,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>54</v>
@@ -1157,21 +1151,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>56</v>
@@ -1180,12 +1174,12 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>57</v>
@@ -1194,7 +1188,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>58</v>
@@ -1203,12 +1197,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>59</v>
@@ -1217,7 +1211,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>60</v>
@@ -1226,12 +1220,12 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>61</v>
@@ -1240,7 +1234,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>62</v>
@@ -1249,21 +1243,21 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>64</v>
@@ -1272,21 +1266,21 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>66</v>
@@ -1295,21 +1289,21 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>68</v>
@@ -1318,21 +1312,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>70</v>
@@ -1341,21 +1335,21 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>72</v>
@@ -1364,12 +1358,12 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>73</v>
@@ -1378,7 +1372,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>74</v>
@@ -1387,12 +1381,12 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>75</v>
@@ -1401,7 +1395,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>76</v>
@@ -1410,12 +1404,12 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>77</v>
@@ -1424,7 +1418,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>78</v>
@@ -1433,12 +1427,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>79</v>
@@ -1447,7 +1441,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>80</v>
@@ -1456,21 +1450,21 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>82</v>
@@ -1479,21 +1473,21 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>84</v>
@@ -1502,21 +1496,21 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>86</v>
@@ -1525,90 +1519,90 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>48</v>
@@ -1617,21 +1611,21 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>50</v>
@@ -1640,21 +1634,21 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>52</v>
@@ -1663,21 +1657,21 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>54</v>
@@ -1686,21 +1680,21 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>56</v>
@@ -1709,12 +1703,12 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>57</v>
@@ -1723,21 +1717,21 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>59</v>
@@ -1746,21 +1740,21 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>61</v>
@@ -1769,53 +1763,53 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>66</v>
@@ -1824,21 +1818,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>68</v>
@@ -1847,21 +1841,21 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>70</v>
@@ -1870,21 +1864,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>72</v>
@@ -1893,12 +1887,12 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>73</v>
@@ -1907,21 +1901,21 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>75</v>
@@ -1930,21 +1924,21 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>77</v>
@@ -1953,21 +1947,21 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>79</v>
@@ -1976,53 +1970,53 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>84</v>
@@ -2031,21 +2025,21 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>86</v>
@@ -2054,67 +2048,67 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G66" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>48</v>
@@ -2123,21 +2117,21 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>50</v>
@@ -2146,21 +2140,21 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>52</v>
@@ -2169,21 +2163,21 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>54</v>
@@ -2192,21 +2186,21 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>56</v>
@@ -2215,12 +2209,12 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>57</v>
@@ -2229,21 +2223,21 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>59</v>
@@ -2252,21 +2246,21 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>61</v>
@@ -2275,53 +2269,53 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>66</v>
@@ -2330,21 +2324,21 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>68</v>
@@ -2353,21 +2347,21 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>70</v>
@@ -2376,21 +2370,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>72</v>
@@ -2399,12 +2393,12 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>73</v>
@@ -2413,21 +2407,21 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>75</v>
@@ -2436,21 +2430,21 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>77</v>
@@ -2459,21 +2453,21 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>79</v>
@@ -2482,53 +2476,53 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>84</v>
@@ -2537,21 +2531,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>86</v>
@@ -2560,7 +2554,7 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88">
@@ -2568,36 +2562,36 @@
         <v>95</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>46</v>
@@ -2606,44 +2600,44 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C90" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>101</v>
@@ -2652,44 +2646,44 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>50</v>
@@ -2698,44 +2692,44 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>105</v>
@@ -2744,44 +2738,44 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>54</v>
@@ -2790,21 +2784,21 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>56</v>
@@ -2813,21 +2807,21 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>58</v>
@@ -2836,21 +2830,21 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>60</v>
@@ -2859,12 +2853,12 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>61</v>
@@ -2873,7 +2867,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>62</v>
@@ -2882,15 +2876,15 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2899,18 +2893,18 @@
         <v>98</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>110</v>
@@ -2919,7 +2913,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>111</v>
@@ -2928,12 +2922,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>112</v>
@@ -2942,7 +2936,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>113</v>
@@ -2951,67 +2945,67 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>122</v>
@@ -3020,21 +3014,21 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>124</v>
@@ -3043,21 +3037,21 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>126</v>
@@ -3066,21 +3060,21 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>128</v>
@@ -3089,21 +3083,21 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>130</v>
@@ -3112,127 +3106,127 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>139</v>
@@ -3241,76 +3235,76 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>140</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>122</v>
@@ -3319,21 +3313,21 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>124</v>
@@ -3342,21 +3336,21 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>126</v>
@@ -3365,21 +3359,21 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>128</v>
@@ -3388,21 +3382,21 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>130</v>
@@ -3411,127 +3405,127 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="E128" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>139</v>
@@ -3540,24 +3534,24 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>140</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -3566,50 +3560,50 @@
         <v>145</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>48</v>
@@ -3618,21 +3612,21 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>50</v>
@@ -3641,21 +3635,21 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>52</v>
@@ -3664,21 +3658,21 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>54</v>
@@ -3687,21 +3681,21 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>56</v>
@@ -3710,12 +3704,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>57</v>
@@ -3724,21 +3718,21 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>59</v>
@@ -3747,21 +3741,21 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>61</v>
@@ -3770,53 +3764,53 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>66</v>
@@ -3825,21 +3819,21 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>68</v>
@@ -3848,21 +3842,21 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>70</v>
@@ -3871,21 +3865,21 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>72</v>
@@ -3894,12 +3888,12 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>73</v>
@@ -3908,21 +3902,21 @@
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>75</v>
@@ -3931,21 +3925,21 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>77</v>
@@ -3954,21 +3948,21 @@
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>79</v>
@@ -3977,53 +3971,53 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>84</v>
@@ -4032,21 +4026,21 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>86</v>
@@ -4055,90 +4049,90 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>154</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>156</v>
@@ -4147,30 +4141,7 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,64 +32,67 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Atto di pre-riconoscimento</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Atto di pre-riconoscimento</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -875,3273 +878,3273 @@
         <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="G66" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
@@ -47,13 +47,13 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Atto di pre-riconoscimento</t>
@@ -458,7 +458,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -556,7 +556,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -206,6 +206,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -422,22 +428,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Atto riconoscimento paterno</t>
@@ -544,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1257,7 +1263,7 @@
         <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>44</v>
@@ -1349,7 +1355,7 @@
         <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>44</v>
@@ -1464,7 +1470,7 @@
         <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>44</v>
@@ -1536,10 +1542,10 @@
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1550,22 +1556,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>31</v>
@@ -1573,22 +1579,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>31</v>
@@ -1596,19 +1602,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1619,19 +1625,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1642,19 +1648,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1665,19 +1671,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1688,19 +1694,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1711,22 +1717,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>31</v>
@@ -1734,22 +1740,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>31</v>
@@ -1757,22 +1763,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>31</v>
@@ -1780,22 +1786,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>31</v>
@@ -1803,22 +1809,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>31</v>
@@ -1826,19 +1832,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1849,19 +1855,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1872,19 +1878,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1895,22 +1901,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>31</v>
@@ -1918,19 +1924,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1941,19 +1947,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>18</v>
@@ -1964,22 +1970,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>31</v>
@@ -1987,22 +1993,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>31</v>
@@ -2010,22 +2016,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>31</v>
@@ -2033,19 +2039,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2056,22 +2062,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>31</v>
@@ -2079,19 +2085,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2102,22 +2108,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>31</v>
@@ -2125,19 +2131,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2148,19 +2154,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2171,19 +2177,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2194,19 +2200,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2217,22 +2223,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>31</v>
@@ -2240,19 +2246,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2263,19 +2269,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>18</v>
@@ -2286,19 +2292,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2309,22 +2315,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>31</v>
@@ -2332,22 +2338,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>31</v>
@@ -2355,19 +2361,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2378,19 +2384,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2401,22 +2407,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>31</v>
@@ -2424,19 +2430,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2447,22 +2453,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>31</v>
@@ -2470,19 +2476,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>18</v>
@@ -2493,19 +2499,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2516,22 +2522,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>31</v>
@@ -2539,22 +2545,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>31</v>
@@ -2565,16 +2571,16 @@
         <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2588,7 +2594,7 @@
         <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
@@ -2597,7 +2603,7 @@
         <v>97</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2611,16 +2617,16 @@
         <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2631,10 +2637,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
@@ -2643,7 +2649,7 @@
         <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2654,19 +2660,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2677,19 +2683,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2700,16 +2706,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>104</v>
@@ -2723,10 +2729,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
@@ -2735,7 +2741,7 @@
         <v>99</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2746,19 +2752,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2769,19 +2775,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2792,19 +2798,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2815,19 +2821,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2838,19 +2844,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2861,19 +2867,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2884,10 +2890,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2896,7 +2902,7 @@
         <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2907,10 +2913,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2919,7 +2925,7 @@
         <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2930,10 +2936,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2942,7 +2948,7 @@
         <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2953,19 +2959,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2976,19 +2982,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2999,19 +3005,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3022,19 +3028,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3045,19 +3051,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3068,19 +3074,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3091,19 +3097,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3114,19 +3120,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3137,19 +3143,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3160,19 +3166,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3183,19 +3189,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3206,22 +3212,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>31</v>
@@ -3229,22 +3235,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>31</v>
@@ -3252,22 +3258,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>31</v>
@@ -3275,22 +3281,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>31</v>
@@ -3298,19 +3304,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3321,19 +3327,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3344,19 +3350,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3367,19 +3373,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3390,19 +3396,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3413,19 +3419,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3436,19 +3442,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3459,19 +3465,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3482,19 +3488,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3505,22 +3511,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>31</v>
@@ -3528,22 +3534,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>31</v>
@@ -3551,10 +3557,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -3563,44 +3569,44 @@
         <v>146</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
@@ -3609,541 +3615,633 @@
         <v>146</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F153" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="G153" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E156" s="2" t="s">
+      <c r="C159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -464,7 +464,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -562,7 +565,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4135,7 +4138,7 @@
         <v>147</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
@@ -4155,10 +4158,10 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
@@ -4167,7 +4170,7 @@
         <v>91</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4178,10 +4181,10 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4190,7 +4193,7 @@
         <v>91</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>21</v>
@@ -4201,10 +4204,10 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
@@ -4213,7 +4216,7 @@
         <v>29</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4224,10 +4227,10 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>17</v>
@@ -4236,7 +4239,7 @@
         <v>101</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -465,9 +465,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -4138,7 +4135,7 @@
         <v>147</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
@@ -4158,10 +4155,10 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
@@ -4170,7 +4167,7 @@
         <v>91</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4181,10 +4178,10 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4193,7 +4190,7 @@
         <v>91</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>21</v>
@@ -4204,10 +4201,10 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
@@ -4216,7 +4213,7 @@
         <v>29</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4227,10 +4224,10 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>17</v>
@@ -4239,7 +4236,7 @@
         <v>101</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -465,6 +465,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -4135,7 +4138,7 @@
         <v>147</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
@@ -4155,10 +4158,10 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
@@ -4167,7 +4170,7 @@
         <v>91</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4178,10 +4181,10 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4190,7 +4193,7 @@
         <v>91</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>21</v>
@@ -4201,10 +4204,10 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
@@ -4213,7 +4216,7 @@
         <v>29</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4224,10 +4227,10 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>17</v>
@@ -4236,7 +4239,7 @@
         <v>101</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="171">
   <si>
     <t>Sezione</t>
   </si>
@@ -300,6 +300,36 @@
   </si>
   <si>
     <t>29,43</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -553,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -563,7 +593,7 @@
     <col min="2" max="2" width="41.8984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2111,22 +2141,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>31</v>
@@ -2134,22 +2164,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>31</v>
@@ -2157,19 +2187,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2180,22 +2210,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>31</v>
@@ -2203,22 +2233,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>31</v>
@@ -2226,22 +2256,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>31</v>
@@ -2249,19 +2279,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2272,22 +2302,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>31</v>
@@ -2295,19 +2325,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2318,22 +2348,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>31</v>
@@ -2341,22 +2371,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>31</v>
@@ -2364,19 +2394,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2387,22 +2417,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>31</v>
@@ -2410,19 +2440,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2433,22 +2463,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>31</v>
@@ -2456,22 +2486,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>31</v>
@@ -2479,22 +2509,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>31</v>
@@ -2502,19 +2532,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2525,22 +2555,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>31</v>
@@ -2548,22 +2578,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>31</v>
@@ -2571,19 +2601,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2594,22 +2624,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>31</v>
@@ -2617,19 +2647,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2640,22 +2670,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>31</v>
@@ -2663,22 +2693,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>31</v>
@@ -2686,19 +2716,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2709,19 +2739,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2732,19 +2762,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2755,19 +2785,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2778,22 +2808,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>31</v>
@@ -2801,19 +2831,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2824,22 +2854,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>31</v>
@@ -2847,22 +2877,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>31</v>
@@ -2870,19 +2900,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2893,19 +2923,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2916,19 +2946,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2939,19 +2969,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2962,19 +2992,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2985,19 +3015,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3008,16 +3038,16 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>116</v>
@@ -3031,19 +3061,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3054,19 +3084,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3077,19 +3107,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3100,19 +3130,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3123,19 +3153,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3146,19 +3176,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3169,19 +3199,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3192,19 +3222,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3215,19 +3245,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3238,19 +3268,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3261,22 +3291,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>31</v>
@@ -3284,22 +3314,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>31</v>
@@ -3307,19 +3337,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3330,19 +3360,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3353,19 +3383,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3376,19 +3406,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3399,19 +3429,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3422,19 +3452,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3445,19 +3475,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3468,19 +3498,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3491,19 +3521,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3514,19 +3544,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3537,19 +3567,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3560,22 +3590,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>31</v>
@@ -3583,19 +3613,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>19</v>
@@ -3606,22 +3636,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>31</v>
@@ -3629,622 +3659,944 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F164" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E160" s="2" t="s">
+      <c r="G164" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
@@ -3228,7 +3228,7 @@
         <v>121</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>111</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="173">
   <si>
     <t>Sezione</t>
   </si>
@@ -158,6 +158,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -212,13 +218,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -583,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H174"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1112,7 +1118,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>44</v>
@@ -1204,7 +1210,7 @@
         <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>44</v>
@@ -1319,7 +1325,7 @@
         <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>44</v>
@@ -1342,7 +1348,7 @@
         <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>44</v>
@@ -1411,7 +1417,7 @@
         <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>44</v>
@@ -1526,7 +1532,7 @@
         <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>44</v>
@@ -1598,10 +1604,10 @@
         <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1612,22 +1618,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>31</v>
@@ -1635,22 +1641,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>31</v>
@@ -1658,19 +1664,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1681,19 +1687,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1704,19 +1710,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1727,19 +1733,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1750,19 +1756,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1773,22 +1779,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>31</v>
@@ -1796,19 +1802,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1819,19 +1825,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>18</v>
@@ -1842,22 +1848,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>31</v>
@@ -1865,22 +1871,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>31</v>
@@ -1888,22 +1894,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>31</v>
@@ -1911,19 +1917,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1934,19 +1940,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1957,19 +1963,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1980,22 +1986,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>31</v>
@@ -2003,19 +2009,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2026,19 +2032,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>18</v>
@@ -2049,22 +2055,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>31</v>
@@ -2072,22 +2078,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>31</v>
@@ -2095,22 +2101,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>31</v>
@@ -2118,19 +2124,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2141,19 +2147,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2164,22 +2170,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>31</v>
@@ -2187,19 +2193,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2210,19 +2216,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>18</v>
@@ -2233,22 +2239,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>31</v>
@@ -2256,22 +2262,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>31</v>
@@ -2279,22 +2285,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>31</v>
@@ -2302,22 +2308,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>31</v>
@@ -2325,19 +2331,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2348,19 +2354,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2371,19 +2377,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2394,19 +2400,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2417,22 +2423,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>31</v>
@@ -2440,19 +2446,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2463,22 +2469,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>31</v>
@@ -2486,19 +2492,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>18</v>
@@ -2509,19 +2515,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2532,22 +2538,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>31</v>
@@ -2555,22 +2561,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>31</v>
@@ -2578,19 +2584,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2601,19 +2607,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2624,22 +2630,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>31</v>
@@ -2647,19 +2653,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2670,22 +2676,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>31</v>
@@ -2693,19 +2699,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>18</v>
@@ -2716,19 +2722,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2739,22 +2745,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>31</v>
@@ -2762,22 +2768,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>31</v>
@@ -2785,19 +2791,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2808,22 +2814,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>31</v>
@@ -2831,19 +2837,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2854,22 +2860,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>31</v>
@@ -2877,19 +2883,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>18</v>
@@ -2903,7 +2909,7 @@
         <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2912,7 +2918,7 @@
         <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2926,19 +2932,19 @@
         <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>31</v>
@@ -2949,19 +2955,19 @@
         <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>31</v>
@@ -2969,10 +2975,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2981,7 +2987,7 @@
         <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2992,19 +2998,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3015,19 +3021,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3038,16 +3044,16 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>116</v>
@@ -3061,19 +3067,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3084,19 +3090,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3107,19 +3113,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3130,19 +3136,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3153,19 +3159,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3176,19 +3182,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3199,19 +3205,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3222,19 +3228,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3245,19 +3251,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3268,19 +3274,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3291,19 +3297,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3314,19 +3320,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3337,10 +3343,10 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -3349,7 +3355,7 @@
         <v>111</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3360,10 +3366,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -3372,7 +3378,7 @@
         <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3383,19 +3389,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3406,19 +3412,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3429,19 +3435,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3452,19 +3458,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3475,19 +3481,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3498,19 +3504,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3521,19 +3527,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3544,19 +3550,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3567,19 +3573,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3590,19 +3596,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3613,22 +3619,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>31</v>
@@ -3636,22 +3642,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>31</v>
@@ -3659,19 +3665,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3682,19 +3688,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3705,22 +3711,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>31</v>
@@ -3728,22 +3734,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>31</v>
@@ -3751,19 +3757,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3774,19 +3780,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3797,19 +3803,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3820,19 +3826,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3843,19 +3849,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3866,19 +3872,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3889,19 +3895,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3912,22 +3918,22 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>31</v>
@@ -3935,22 +3941,22 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>31</v>
@@ -3958,19 +3964,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3981,79 +3987,79 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>158</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>160</v>
+        <v>31</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>158</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>160</v>
+        <v>31</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>158</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>160</v>
+        <v>31</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>17</v>
@@ -4062,541 +4068,656 @@
         <v>158</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>160</v>
+        <v>31</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B174" s="2" t="s">
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E174" s="2" t="s">
+      <c r="C178" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -589,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H179"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1394,7 +1400,7 @@
         <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>44</v>
@@ -1417,7 +1423,7 @@
         <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>44</v>
@@ -1555,7 +1561,7 @@
         <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>44</v>
@@ -1627,10 +1633,10 @@
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1641,22 +1647,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>31</v>
@@ -1664,22 +1670,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>31</v>
@@ -1687,19 +1693,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1710,19 +1716,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1733,19 +1739,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1756,19 +1762,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1779,19 +1785,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1802,19 +1808,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1825,22 +1831,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>31</v>
@@ -1848,22 +1854,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>31</v>
@@ -1871,22 +1877,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>31</v>
@@ -1894,19 +1900,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>18</v>
@@ -1917,22 +1923,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>31</v>
@@ -1940,19 +1946,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1963,19 +1969,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1986,22 +1992,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>31</v>
@@ -2009,19 +2015,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2032,19 +2038,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>18</v>
@@ -2055,19 +2061,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2078,19 +2084,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>18</v>
@@ -2101,22 +2107,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>31</v>
@@ -2124,22 +2130,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>31</v>
@@ -2147,22 +2153,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>31</v>
@@ -2170,19 +2176,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2193,19 +2199,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2216,22 +2222,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>31</v>
@@ -2239,19 +2245,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2262,19 +2268,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>18</v>
@@ -2285,22 +2291,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>31</v>
@@ -2308,22 +2314,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>31</v>
@@ -2331,22 +2337,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>31</v>
@@ -2354,22 +2360,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>31</v>
@@ -2377,19 +2383,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2400,19 +2406,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2423,19 +2429,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2446,19 +2452,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2469,19 +2475,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2492,22 +2498,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>31</v>
@@ -2515,19 +2521,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2538,22 +2544,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>31</v>
@@ -2561,22 +2567,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>31</v>
@@ -2584,22 +2590,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>31</v>
@@ -2607,22 +2613,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>31</v>
@@ -2630,19 +2636,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2653,19 +2659,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2676,22 +2682,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>31</v>
@@ -2699,22 +2705,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>31</v>
@@ -2722,22 +2728,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>31</v>
@@ -2745,22 +2751,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>31</v>
@@ -2768,22 +2774,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>31</v>
@@ -2791,19 +2797,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2814,22 +2820,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>31</v>
@@ -2837,22 +2843,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>31</v>
@@ -2860,19 +2866,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2883,22 +2889,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>31</v>
@@ -2906,19 +2912,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2929,22 +2935,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>31</v>
@@ -2952,22 +2958,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>31</v>
@@ -2978,7 +2984,7 @@
         <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2987,7 +2993,7 @@
         <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3001,19 +3007,19 @@
         <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>31</v>
@@ -3024,19 +3030,19 @@
         <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>31</v>
@@ -3044,10 +3050,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3056,7 +3062,7 @@
         <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3067,19 +3073,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3090,19 +3096,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3113,19 +3119,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3136,19 +3142,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3159,10 +3165,10 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
@@ -3171,7 +3177,7 @@
         <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3182,19 +3188,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3205,19 +3211,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3228,19 +3234,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3251,19 +3257,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3274,19 +3280,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3297,19 +3303,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3320,19 +3326,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3343,19 +3349,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3366,19 +3372,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3389,19 +3395,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3412,19 +3418,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3435,10 +3441,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -3447,7 +3453,7 @@
         <v>113</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3458,10 +3464,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3470,7 +3476,7 @@
         <v>113</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3481,19 +3487,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3504,19 +3510,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3527,19 +3533,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3550,19 +3556,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3573,19 +3579,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3596,19 +3602,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3619,19 +3625,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3642,19 +3648,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3665,19 +3671,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3688,19 +3694,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3711,22 +3717,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>31</v>
@@ -3734,22 +3740,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>31</v>
@@ -3757,19 +3763,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3780,22 +3786,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>31</v>
@@ -3803,22 +3809,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>31</v>
@@ -3826,19 +3832,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="C141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3849,19 +3855,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3872,19 +3878,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3895,19 +3901,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3918,19 +3924,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3941,19 +3947,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3964,19 +3970,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3987,19 +3993,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4010,22 +4016,22 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>31</v>
@@ -4033,22 +4039,22 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>31</v>
@@ -4056,19 +4062,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4079,10 +4085,10 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4091,633 +4097,725 @@
         <v>160</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F175" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G175" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B179" s="2" t="s">
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E179" s="2" t="s">
+      <c r="C182" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="177">
   <si>
     <t>Sezione</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -595,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1584,7 +1590,7 @@
         <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>44</v>
@@ -1656,10 +1662,10 @@
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1670,22 +1676,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>31</v>
@@ -1693,22 +1699,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>31</v>
@@ -1716,19 +1722,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1739,19 +1745,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1762,19 +1768,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1785,19 +1791,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1808,19 +1814,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1831,19 +1837,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1854,22 +1860,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>31</v>
@@ -1877,22 +1883,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>31</v>
@@ -1900,22 +1906,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>31</v>
@@ -1923,19 +1929,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>18</v>
@@ -1946,22 +1952,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>31</v>
@@ -1969,19 +1975,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1992,22 +1998,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>31</v>
@@ -2015,22 +2021,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>31</v>
@@ -2038,19 +2044,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>18</v>
@@ -2061,19 +2067,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2084,19 +2090,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>18</v>
@@ -2107,19 +2113,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2130,19 +2136,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>18</v>
@@ -2153,22 +2159,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>31</v>
@@ -2176,22 +2182,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>31</v>
@@ -2199,22 +2205,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>31</v>
@@ -2222,19 +2228,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2245,19 +2251,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2268,22 +2274,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>31</v>
@@ -2291,19 +2297,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2314,19 +2320,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>18</v>
@@ -2337,22 +2343,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>31</v>
@@ -2360,22 +2366,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>31</v>
@@ -2383,22 +2389,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>31</v>
@@ -2406,22 +2412,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>31</v>
@@ -2429,19 +2435,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2452,19 +2458,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2475,19 +2481,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2498,19 +2504,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2521,19 +2527,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2544,22 +2550,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>31</v>
@@ -2567,19 +2573,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2590,22 +2596,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>31</v>
@@ -2613,22 +2619,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>31</v>
@@ -2636,22 +2642,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>31</v>
@@ -2659,22 +2665,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>31</v>
@@ -2682,22 +2688,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>31</v>
@@ -2705,19 +2711,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2728,22 +2734,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>31</v>
@@ -2751,22 +2757,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>31</v>
@@ -2774,22 +2780,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>31</v>
@@ -2797,22 +2803,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>31</v>
@@ -2820,22 +2826,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>31</v>
@@ -2843,22 +2849,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>31</v>
@@ -2866,19 +2872,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2889,22 +2895,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>31</v>
@@ -2912,22 +2918,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>31</v>
@@ -2935,19 +2941,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2958,22 +2964,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>31</v>
@@ -2981,19 +2987,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3004,22 +3010,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>31</v>
@@ -3027,22 +3033,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>31</v>
@@ -3053,7 +3059,7 @@
         <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3062,7 +3068,7 @@
         <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3076,19 +3082,19 @@
         <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>31</v>
@@ -3099,19 +3105,19 @@
         <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>31</v>
@@ -3119,10 +3125,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3131,7 +3137,7 @@
         <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3142,19 +3148,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3165,19 +3171,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3188,19 +3194,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3211,19 +3217,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3234,10 +3240,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
@@ -3246,7 +3252,7 @@
         <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3257,19 +3263,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3280,19 +3286,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3303,19 +3309,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3326,19 +3332,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3349,19 +3355,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3372,19 +3378,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3395,19 +3401,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3418,19 +3424,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3441,19 +3447,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3464,19 +3470,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3487,19 +3493,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3510,10 +3516,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3522,7 +3528,7 @@
         <v>115</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3533,10 +3539,10 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3545,7 +3551,7 @@
         <v>115</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3556,19 +3562,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3579,19 +3585,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3602,19 +3608,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3625,19 +3631,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3648,19 +3654,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3671,19 +3677,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3694,19 +3700,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3717,19 +3723,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3740,19 +3746,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3763,19 +3769,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3786,22 +3792,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>31</v>
@@ -3809,22 +3815,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>31</v>
@@ -3832,19 +3838,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3855,22 +3861,22 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>31</v>
@@ -3878,22 +3884,22 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>31</v>
@@ -3901,19 +3907,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="C144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="E144" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3924,19 +3930,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3947,19 +3953,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3970,19 +3976,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3993,19 +3999,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4016,19 +4022,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4039,19 +4045,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4062,19 +4068,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4085,22 +4091,22 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>31</v>
@@ -4108,22 +4114,22 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>31</v>
@@ -4131,19 +4137,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4154,10 +4160,10 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -4166,656 +4172,748 @@
         <v>162</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>162</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>162</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F179" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G179" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B183" s="2" t="s">
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E183" s="2" t="s">
+      <c r="C186" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="211">
   <si>
     <t>Sezione</t>
   </si>
@@ -56,6 +56,12 @@
     <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
+  </si>
+  <si>
     <t>Atto di pre-riconoscimento</t>
   </si>
   <si>
@@ -128,6 +134,96 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo Redazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>evento.luogoRedazione</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>evento.redattoNellaCasaComunale,!=,false</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>Numero Civico</t>
+  </si>
+  <si>
+    <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>Data Redazione Nascita</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>dataRedazione</t>
+  </si>
+  <si>
+    <t>Ora Redazione</t>
+  </si>
+  <si>
+    <t>oraRedazione</t>
+  </si>
+  <si>
+    <t>Minuti Redazione</t>
+  </si>
+  <si>
+    <t>minutiRedazione</t>
+  </si>
+  <si>
     <t>Dati generali</t>
   </si>
   <si>
@@ -212,9 +308,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -311,6 +404,15 @@
     <t>titoloDichiarante</t>
   </si>
   <si>
+    <t>Ufficiale dello Stato Civile</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -365,9 +467,6 @@
     <t>Assegnazione cognome</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>sceltaCognome</t>
   </si>
   <si>
@@ -515,9 +614,6 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -543,6 +639,12 @@
   </si>
   <si>
     <t>tipoAccertamento</t>
+  </si>
+  <si>
+    <t>Redatto nella casa comunale</t>
+  </si>
+  <si>
+    <t>redattoNellaCasaComunale</t>
   </si>
 </sst>
 </file>
@@ -601,14 +703,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H187"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="27.54296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="41.8984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
@@ -705,18 +807,18 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -733,13 +835,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -756,13 +858,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -779,13 +881,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -802,10 +904,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -825,10 +927,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -848,10 +950,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -871,10 +973,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -894,10 +996,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -916,86 +1018,86 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>35</v>
@@ -1004,21 +1106,21 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>37</v>
@@ -1027,2965 +1129,2965 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F106" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>141</v>
@@ -3994,927 +4096,1870 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>145</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D187" s="2" t="s">
+      <c r="C188" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E187" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="211">
   <si>
     <t>Sezione</t>
   </si>
@@ -703,7 +703,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H227"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2448,7 +2448,7 @@
         <v>130</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2457,7 +2457,7 @@
         <v>131</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2471,7 +2471,7 @@
         <v>130</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2480,7 +2480,7 @@
         <v>131</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2494,7 +2494,7 @@
         <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2503,7 +2503,7 @@
         <v>131</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2517,7 +2517,7 @@
         <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2526,7 +2526,7 @@
         <v>131</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2540,7 +2540,7 @@
         <v>130</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2549,7 +2549,7 @@
         <v>131</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2563,7 +2563,7 @@
         <v>130</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2572,7 +2572,7 @@
         <v>131</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2586,7 +2586,7 @@
         <v>130</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2595,7 +2595,7 @@
         <v>131</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2609,7 +2609,7 @@
         <v>130</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2618,7 +2618,7 @@
         <v>131</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2632,7 +2632,7 @@
         <v>130</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2641,7 +2641,7 @@
         <v>131</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2655,7 +2655,7 @@
         <v>130</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2664,7 +2664,7 @@
         <v>131</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2678,7 +2678,7 @@
         <v>130</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2687,7 +2687,7 @@
         <v>131</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2698,25 +2698,25 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88">
@@ -2724,19 +2724,19 @@
         <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>33</v>
@@ -2747,16 +2747,16 @@
         <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2770,16 +2770,16 @@
         <v>133</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2793,7 +2793,7 @@
         <v>133</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>19</v>
@@ -2802,7 +2802,7 @@
         <v>134</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2816,7 +2816,7 @@
         <v>133</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>19</v>
@@ -2825,7 +2825,7 @@
         <v>134</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2839,7 +2839,7 @@
         <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>19</v>
@@ -2848,7 +2848,7 @@
         <v>134</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2862,16 +2862,16 @@
         <v>133</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2885,7 +2885,7 @@
         <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2894,10 +2894,10 @@
         <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>33</v>
@@ -2908,7 +2908,7 @@
         <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2917,10 +2917,10 @@
         <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>33</v>
@@ -2931,7 +2931,7 @@
         <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2940,10 +2940,10 @@
         <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>33</v>
@@ -2954,7 +2954,7 @@
         <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2963,7 +2963,7 @@
         <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>20</v>
@@ -2977,19 +2977,19 @@
         <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>33</v>
@@ -3000,7 +3000,7 @@
         <v>133</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>19</v>
@@ -3009,7 +3009,7 @@
         <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3023,19 +3023,19 @@
         <v>133</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>33</v>
@@ -3046,7 +3046,7 @@
         <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -3055,7 +3055,7 @@
         <v>134</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>20</v>
@@ -3069,7 +3069,7 @@
         <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -3078,10 +3078,10 @@
         <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>33</v>
@@ -3092,7 +3092,7 @@
         <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3101,10 +3101,10 @@
         <v>134</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>33</v>
@@ -3115,7 +3115,7 @@
         <v>133</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3124,10 +3124,10 @@
         <v>134</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>33</v>
@@ -3138,7 +3138,7 @@
         <v>133</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3147,10 +3147,10 @@
         <v>134</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>33</v>
@@ -3161,7 +3161,7 @@
         <v>133</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3170,10 +3170,10 @@
         <v>134</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>33</v>
@@ -3184,7 +3184,7 @@
         <v>133</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3193,10 +3193,10 @@
         <v>134</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>33</v>
@@ -3207,7 +3207,7 @@
         <v>133</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3216,7 +3216,7 @@
         <v>134</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>20</v>
@@ -3230,19 +3230,19 @@
         <v>133</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>33</v>
@@ -3253,7 +3253,7 @@
         <v>133</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>19</v>
@@ -3262,7 +3262,7 @@
         <v>134</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3276,7 +3276,7 @@
         <v>133</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>19</v>
@@ -3285,7 +3285,7 @@
         <v>134</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3299,16 +3299,16 @@
         <v>133</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3322,7 +3322,7 @@
         <v>133</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -3331,10 +3331,10 @@
         <v>134</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>33</v>
@@ -3345,7 +3345,7 @@
         <v>133</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3354,10 +3354,10 @@
         <v>134</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>33</v>
@@ -3368,7 +3368,7 @@
         <v>133</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3377,10 +3377,10 @@
         <v>134</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>33</v>
@@ -3391,7 +3391,7 @@
         <v>133</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -3400,7 +3400,7 @@
         <v>134</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>20</v>
@@ -3411,22 +3411,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>33</v>
@@ -3437,19 +3437,19 @@
         <v>146</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>33</v>
@@ -3460,16 +3460,16 @@
         <v>146</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3483,16 +3483,16 @@
         <v>146</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3506,7 +3506,7 @@
         <v>146</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>19</v>
@@ -3515,7 +3515,7 @@
         <v>147</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3529,7 +3529,7 @@
         <v>146</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>19</v>
@@ -3538,7 +3538,7 @@
         <v>147</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3552,7 +3552,7 @@
         <v>146</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>19</v>
@@ -3561,7 +3561,7 @@
         <v>147</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3575,16 +3575,16 @@
         <v>146</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3598,7 +3598,7 @@
         <v>146</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3607,10 +3607,10 @@
         <v>147</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>33</v>
@@ -3621,7 +3621,7 @@
         <v>146</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3630,10 +3630,10 @@
         <v>147</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>33</v>
@@ -3644,7 +3644,7 @@
         <v>146</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3653,10 +3653,10 @@
         <v>147</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>33</v>
@@ -3667,7 +3667,7 @@
         <v>146</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3676,7 +3676,7 @@
         <v>147</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>135</v>
@@ -3690,19 +3690,19 @@
         <v>146</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>33</v>
@@ -3713,7 +3713,7 @@
         <v>146</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>19</v>
@@ -3722,7 +3722,7 @@
         <v>147</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3736,19 +3736,19 @@
         <v>146</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>33</v>
@@ -3759,7 +3759,7 @@
         <v>146</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -3768,7 +3768,7 @@
         <v>147</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>135</v>
@@ -3782,7 +3782,7 @@
         <v>146</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -3791,10 +3791,10 @@
         <v>147</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>33</v>
@@ -3805,7 +3805,7 @@
         <v>146</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -3814,10 +3814,10 @@
         <v>147</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>33</v>
@@ -3828,7 +3828,7 @@
         <v>146</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3837,10 +3837,10 @@
         <v>147</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>33</v>
@@ -3851,7 +3851,7 @@
         <v>146</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3860,10 +3860,10 @@
         <v>147</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>33</v>
@@ -3874,7 +3874,7 @@
         <v>146</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3883,10 +3883,10 @@
         <v>147</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>33</v>
@@ -3897,7 +3897,7 @@
         <v>146</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -3906,10 +3906,10 @@
         <v>147</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>33</v>
@@ -3920,7 +3920,7 @@
         <v>146</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -3929,7 +3929,7 @@
         <v>147</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>135</v>
@@ -3943,19 +3943,19 @@
         <v>146</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>33</v>
@@ -3966,7 +3966,7 @@
         <v>146</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>19</v>
@@ -3975,7 +3975,7 @@
         <v>147</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3989,7 +3989,7 @@
         <v>146</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>19</v>
@@ -3998,7 +3998,7 @@
         <v>147</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -4012,16 +4012,16 @@
         <v>146</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -4035,7 +4035,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -4044,10 +4044,10 @@
         <v>147</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>33</v>
@@ -4058,7 +4058,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4067,10 +4067,10 @@
         <v>147</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>33</v>
@@ -4081,7 +4081,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4090,10 +4090,10 @@
         <v>147</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>33</v>
@@ -4104,7 +4104,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4113,7 +4113,7 @@
         <v>147</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>135</v>
@@ -4124,22 +4124,22 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>33</v>
@@ -4150,16 +4150,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4173,16 +4173,16 @@
         <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4196,7 +4196,7 @@
         <v>148</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4205,7 +4205,7 @@
         <v>64</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4219,16 +4219,16 @@
         <v>148</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4242,16 +4242,16 @@
         <v>148</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4265,7 +4265,7 @@
         <v>148</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>19</v>
@@ -4274,7 +4274,7 @@
         <v>149</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4288,16 +4288,16 @@
         <v>148</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4311,7 +4311,7 @@
         <v>148</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>19</v>
@@ -4320,7 +4320,7 @@
         <v>64</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4334,16 +4334,16 @@
         <v>148</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4357,7 +4357,7 @@
         <v>148</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>19</v>
@@ -4366,7 +4366,7 @@
         <v>149</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4380,16 +4380,16 @@
         <v>148</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4403,7 +4403,7 @@
         <v>148</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4412,7 +4412,7 @@
         <v>149</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4426,7 +4426,7 @@
         <v>148</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4435,7 +4435,7 @@
         <v>149</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4449,7 +4449,7 @@
         <v>148</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4458,7 +4458,7 @@
         <v>149</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4472,16 +4472,16 @@
         <v>148</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4495,16 +4495,16 @@
         <v>148</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4518,7 +4518,7 @@
         <v>148</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4527,7 +4527,7 @@
         <v>149</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4541,7 +4541,7 @@
         <v>148</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4550,7 +4550,7 @@
         <v>149</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4564,7 +4564,7 @@
         <v>148</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4573,7 +4573,7 @@
         <v>149</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4587,16 +4587,16 @@
         <v>148</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4610,7 +4610,7 @@
         <v>148</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4619,7 +4619,7 @@
         <v>64</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4630,19 +4630,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4656,16 +4656,16 @@
         <v>166</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4679,16 +4679,16 @@
         <v>166</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>171</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4702,7 +4702,7 @@
         <v>166</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>19</v>
@@ -4711,7 +4711,7 @@
         <v>171</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4725,7 +4725,7 @@
         <v>166</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>19</v>
@@ -4734,7 +4734,7 @@
         <v>171</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4748,7 +4748,7 @@
         <v>166</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>19</v>
@@ -4757,7 +4757,7 @@
         <v>171</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4771,7 +4771,7 @@
         <v>166</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>19</v>
@@ -4780,7 +4780,7 @@
         <v>171</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4794,7 +4794,7 @@
         <v>166</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>19</v>
@@ -4803,7 +4803,7 @@
         <v>171</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4817,7 +4817,7 @@
         <v>166</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>19</v>
@@ -4826,7 +4826,7 @@
         <v>171</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4840,7 +4840,7 @@
         <v>166</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>19</v>
@@ -4849,7 +4849,7 @@
         <v>171</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>185</v>
+        <v>35</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4863,19 +4863,19 @@
         <v>166</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>171</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>33</v>
@@ -4886,7 +4886,7 @@
         <v>166</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -4895,7 +4895,7 @@
         <v>171</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>21</v>
@@ -4909,19 +4909,19 @@
         <v>166</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>171</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>33</v>
@@ -4929,19 +4929,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4955,16 +4955,16 @@
         <v>193</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4978,16 +4978,16 @@
         <v>193</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -5001,7 +5001,7 @@
         <v>193</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>19</v>
@@ -5010,7 +5010,7 @@
         <v>195</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -5024,7 +5024,7 @@
         <v>193</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>19</v>
@@ -5033,7 +5033,7 @@
         <v>195</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -5047,7 +5047,7 @@
         <v>193</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>19</v>
@@ -5056,7 +5056,7 @@
         <v>195</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -5070,7 +5070,7 @@
         <v>193</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>19</v>
@@ -5079,7 +5079,7 @@
         <v>195</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
@@ -5093,7 +5093,7 @@
         <v>193</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>19</v>
@@ -5102,7 +5102,7 @@
         <v>195</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -5116,7 +5116,7 @@
         <v>193</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>19</v>
@@ -5125,7 +5125,7 @@
         <v>195</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -5139,7 +5139,7 @@
         <v>193</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>19</v>
@@ -5148,7 +5148,7 @@
         <v>195</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>185</v>
+        <v>35</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -5162,19 +5162,19 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>33</v>
@@ -5185,7 +5185,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5194,7 +5194,7 @@
         <v>195</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>21</v>
@@ -5208,19 +5208,19 @@
         <v>193</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>33</v>
@@ -5228,25 +5228,25 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
     </row>
     <row r="198">
@@ -5254,19 +5254,19 @@
         <v>196</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>199</v>
@@ -5277,16 +5277,16 @@
         <v>196</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
@@ -5300,16 +5300,16 @@
         <v>196</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
@@ -5323,7 +5323,7 @@
         <v>196</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>19</v>
@@ -5332,7 +5332,7 @@
         <v>197</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
@@ -5346,7 +5346,7 @@
         <v>196</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>19</v>
@@ -5355,7 +5355,7 @@
         <v>197</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
@@ -5369,7 +5369,7 @@
         <v>196</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>19</v>
@@ -5378,7 +5378,7 @@
         <v>197</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
@@ -5392,16 +5392,16 @@
         <v>196</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
@@ -5415,7 +5415,7 @@
         <v>196</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
@@ -5424,10 +5424,10 @@
         <v>197</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>199</v>
@@ -5438,7 +5438,7 @@
         <v>196</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5447,10 +5447,10 @@
         <v>197</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>199</v>
@@ -5461,7 +5461,7 @@
         <v>196</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5470,10 +5470,10 @@
         <v>197</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>199</v>
@@ -5484,7 +5484,7 @@
         <v>196</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5493,7 +5493,7 @@
         <v>197</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>198</v>
@@ -5507,19 +5507,19 @@
         <v>196</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>199</v>
@@ -5530,7 +5530,7 @@
         <v>196</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>19</v>
@@ -5539,7 +5539,7 @@
         <v>197</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
@@ -5553,19 +5553,19 @@
         <v>196</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>199</v>
@@ -5576,7 +5576,7 @@
         <v>196</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
@@ -5585,7 +5585,7 @@
         <v>197</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>198</v>
@@ -5599,7 +5599,7 @@
         <v>196</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
@@ -5608,10 +5608,10 @@
         <v>197</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
         <v>199</v>
@@ -5622,7 +5622,7 @@
         <v>196</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
@@ -5631,10 +5631,10 @@
         <v>197</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>199</v>
@@ -5645,7 +5645,7 @@
         <v>196</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
@@ -5654,10 +5654,10 @@
         <v>197</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>199</v>
@@ -5668,7 +5668,7 @@
         <v>196</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
@@ -5677,10 +5677,10 @@
         <v>197</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="G216" s="2" t="s">
         <v>199</v>
@@ -5691,7 +5691,7 @@
         <v>196</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
@@ -5700,10 +5700,10 @@
         <v>197</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>199</v>
@@ -5714,7 +5714,7 @@
         <v>196</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
@@ -5723,10 +5723,10 @@
         <v>197</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="G218" s="2" t="s">
         <v>199</v>
@@ -5737,7 +5737,7 @@
         <v>196</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
@@ -5746,7 +5746,7 @@
         <v>197</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>198</v>
@@ -5760,19 +5760,19 @@
         <v>196</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
         <v>199</v>
@@ -5783,7 +5783,7 @@
         <v>196</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>19</v>
@@ -5792,7 +5792,7 @@
         <v>197</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
@@ -5806,7 +5806,7 @@
         <v>196</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>19</v>
@@ -5815,7 +5815,7 @@
         <v>197</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
@@ -5826,25 +5826,25 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>197</v>
+        <v>128</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>199</v>
+        <v>33</v>
       </c>
     </row>
     <row r="224">
@@ -5852,19 +5852,19 @@
         <v>200</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G224" s="2" t="s">
         <v>33</v>
@@ -5875,19 +5875,19 @@
         <v>200</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
         <v>33</v>
@@ -5898,16 +5898,16 @@
         <v>200</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
@@ -5921,44 +5921,21 @@
         <v>200</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="213">
   <si>
     <t>Sezione</t>
   </si>
@@ -585,6 +585,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -703,7 +709,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1807,7 +1813,7 @@
         <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>76</v>
@@ -4912,7 +4918,7 @@
         <v>191</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>171</v>
@@ -4921,7 +4927,7 @@
         <v>192</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>33</v>
@@ -4929,19 +4935,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="C184" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D184" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4952,19 +4958,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4975,19 +4981,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -4998,19 +5004,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -5021,19 +5027,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -5044,19 +5050,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -5067,19 +5073,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
@@ -5090,19 +5096,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -5113,19 +5119,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -5136,19 +5142,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -5159,22 +5165,22 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>33</v>
@@ -5182,19 +5188,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>21</v>
@@ -5205,22 +5211,22 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>33</v>
@@ -5228,10 +5234,10 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5240,21 +5246,21 @@
         <v>197</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>199</v>
+        <v>33</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>19</v>
@@ -5263,628 +5269,628 @@
         <v>197</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>199</v>
+        <v>33</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>128</v>
+        <v>199</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>204</v>
+        <v>126</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
@@ -5895,22 +5901,22 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>33</v>
@@ -5918,24 +5924,70 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E227" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E228" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="2" t="s">
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
@@ -5562,7 +5562,7 @@
         <v>99</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>199</v>
@@ -5585,7 +5585,7 @@
         <v>101</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>199</v>
@@ -5594,7 +5594,7 @@
         <v>102</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>201</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_065.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="217">
   <si>
     <t>Sezione</t>
   </si>
@@ -264,6 +264,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -709,7 +721,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H229"/>
+  <dimension ref="A1:H239"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1606,7 +1618,7 @@
         <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>76</v>
@@ -1629,7 +1641,7 @@
         <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>76</v>
@@ -1675,7 +1687,7 @@
         <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>76</v>
@@ -1698,7 +1710,7 @@
         <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>76</v>
@@ -1764,7 +1776,7 @@
         <v>73</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1773,7 +1785,7 @@
         <v>76</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1787,7 +1799,7 @@
         <v>73</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -1796,7 +1808,7 @@
         <v>76</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1810,7 +1822,7 @@
         <v>73</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -2043,7 +2055,7 @@
         <v>121</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>76</v>
@@ -2066,7 +2078,7 @@
         <v>123</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>76</v>
@@ -2115,10 +2127,10 @@
         <v>19</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2129,65 +2141,65 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2198,19 +2210,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2221,19 +2233,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2244,19 +2256,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2267,19 +2279,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2290,19 +2302,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2313,19 +2325,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2336,19 +2348,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2359,19 +2371,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2382,19 +2394,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2405,19 +2417,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2428,19 +2440,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2451,19 +2463,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2474,19 +2486,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2497,19 +2509,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2520,19 +2532,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2543,19 +2555,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2566,19 +2578,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2589,19 +2601,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2612,19 +2624,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2635,19 +2647,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2658,19 +2670,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2681,19 +2693,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2704,114 +2716,114 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>33</v>
@@ -2819,19 +2831,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2842,19 +2854,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2865,19 +2877,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2888,22 +2900,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>33</v>
@@ -2911,22 +2923,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>33</v>
@@ -2934,22 +2946,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>33</v>
@@ -2957,22 +2969,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>33</v>
@@ -2980,19 +2992,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -3003,19 +3015,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3026,19 +3038,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>20</v>
@@ -3049,22 +3061,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>33</v>
@@ -3072,22 +3084,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>33</v>
@@ -3095,19 +3107,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>20</v>
@@ -3118,19 +3130,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3141,22 +3153,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>33</v>
@@ -3164,22 +3176,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>33</v>
@@ -3187,19 +3199,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>20</v>
@@ -3210,22 +3222,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>33</v>
@@ -3233,22 +3245,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>33</v>
@@ -3256,19 +3268,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3279,22 +3291,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>33</v>
@@ -3302,19 +3314,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3325,19 +3337,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>20</v>
@@ -3348,22 +3360,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>33</v>
@@ -3371,22 +3383,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>33</v>
@@ -3394,22 +3406,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>33</v>
@@ -3417,22 +3429,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>33</v>
@@ -3440,19 +3452,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3463,22 +3475,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>33</v>
@@ -3486,19 +3498,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3509,22 +3521,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>33</v>
@@ -3532,22 +3544,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>33</v>
@@ -3555,22 +3567,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>33</v>
@@ -3578,19 +3590,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3601,22 +3613,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>33</v>
@@ -3624,19 +3636,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3647,22 +3659,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>33</v>
@@ -3670,22 +3682,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>33</v>
@@ -3693,19 +3705,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3716,19 +3728,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3739,22 +3751,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>33</v>
@@ -3762,22 +3774,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>33</v>
@@ -3785,22 +3797,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>33</v>
@@ -3808,22 +3820,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>33</v>
@@ -3831,22 +3843,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>33</v>
@@ -3854,22 +3866,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>33</v>
@@ -3877,19 +3889,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3900,22 +3912,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>33</v>
@@ -3923,22 +3935,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>33</v>
@@ -3946,22 +3958,22 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>33</v>
@@ -3969,19 +3981,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3992,22 +4004,22 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>33</v>
@@ -4015,19 +4027,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -4038,22 +4050,22 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E145" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>33</v>
@@ -4061,19 +4073,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4084,22 +4096,22 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>33</v>
@@ -4107,22 +4119,22 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>33</v>
@@ -4130,19 +4142,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4153,19 +4165,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4176,19 +4188,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4199,19 +4211,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4222,22 +4234,22 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>33</v>
@@ -4245,19 +4257,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4268,22 +4280,22 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>33</v>
@@ -4291,22 +4303,22 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C156" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>33</v>
@@ -4314,19 +4326,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4337,19 +4349,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4360,19 +4372,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4383,19 +4395,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4406,19 +4418,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4429,19 +4441,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4452,19 +4464,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4475,10 +4487,10 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>19</v>
@@ -4487,7 +4499,7 @@
         <v>64</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4498,19 +4510,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4521,19 +4533,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4544,19 +4556,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4567,19 +4579,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4590,19 +4602,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4613,19 +4625,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4636,19 +4648,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4659,19 +4671,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4682,19 +4694,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4705,19 +4717,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4728,19 +4740,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4751,19 +4763,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4774,19 +4786,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="C177" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4797,19 +4809,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4820,19 +4832,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4843,19 +4855,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4866,22 +4878,22 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>33</v>
@@ -4889,22 +4901,22 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>33</v>
@@ -4912,22 +4924,22 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>33</v>
@@ -4935,19 +4947,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4958,19 +4970,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4981,19 +4993,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -5004,19 +5016,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -5027,19 +5039,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="E188" s="2" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -5050,22 +5062,22 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>33</v>
@@ -5073,22 +5085,22 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>33</v>
@@ -5096,22 +5108,22 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="C191" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>33</v>
@@ -5119,19 +5131,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -5142,19 +5154,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -5165,19 +5177,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
@@ -5188,22 +5200,22 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>33</v>
@@ -5211,22 +5223,22 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>33</v>
@@ -5234,22 +5246,22 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>33</v>
@@ -5257,19 +5269,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -5280,600 +5292,600 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>201</v>
+        <v>33</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>201</v>
+        <v>33</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>201</v>
+        <v>33</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>201</v>
+        <v>33</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>201</v>
+        <v>33</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>201</v>
+        <v>33</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>201</v>
+        <v>33</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>201</v>
+        <v>33</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="225">
@@ -5881,22 +5893,22 @@
         <v>202</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E225" s="2" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
     </row>
     <row r="226">
@@ -5904,22 +5916,22 @@
         <v>202</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G226" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="227">
@@ -5927,22 +5939,22 @@
         <v>202</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>31</v>
+        <v>203</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
     </row>
     <row r="228">
@@ -5950,22 +5962,22 @@
         <v>202</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
     </row>
     <row r="229">
@@ -5973,21 +5985,251 @@
         <v>202</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" s="2" t="s">
+      <c r="C237" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E229" s="2" t="s">
+      <c r="E237" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F229" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G229" s="2" t="s">
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
         <v>33</v>
       </c>
     </row>
